--- a/results-data/analysis/random/analysis - random-large.xlsx
+++ b/results-data/analysis/random/analysis - random-large.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrateur\Documents\Master\Advanced algorithms\moha\knapsackProblem\results-data\analysis\random\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8FB027-4D1B-453B-B9D9-5B04312725E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66703A38-92D2-4A58-87C9-FC5B5552BEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random - large" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'random - large'!$A$27:$L$331</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="25">
   <si>
     <t>Time</t>
   </si>
@@ -102,6 +105,9 @@
   </si>
   <si>
     <t>CMCM</t>
+  </si>
+  <si>
+    <t>COMPARISON ALGO / TIME</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,12 +244,6 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,6 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,7 +1152,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu weight</a:t>
+              <a:t>CMCM</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1251,18 +1258,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$242:$D$244</c:f>
+              <c:f>'random - large'!$D$273:$D$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.3284201622009202E-2</c:v>
+                  <c:v>1.0333671092987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0449357032775801E-2</c:v>
+                  <c:v>1.0787679195404001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.52087259292602E-2</c:v>
+                  <c:v>0.87786917686462396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1270,7 +1277,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
+              <c16:uniqueId val="{00000000-20AB-4B5B-A946-C87505734EAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1324,18 +1331,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$242:$B$244</c:f>
+              <c:f>'random - large'!$B$273:$B$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.4907102584838798E-2</c:v>
+                  <c:v>0.89176058769225997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8896322250366197E-2</c:v>
+                  <c:v>0.85826134681701605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2935142517089802E-2</c:v>
+                  <c:v>0.85487532615661599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1350,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
+              <c16:uniqueId val="{00000001-20AB-4B5B-A946-C87505734EAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1397,18 +1404,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$242:$C$244</c:f>
+              <c:f>'random - large'!$C$273:$C$275</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.98132514953613E-2</c:v>
+                  <c:v>1.3184738159179601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3426275253295898E-2</c:v>
+                  <c:v>1.6400978565216</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7928342819213798E-2</c:v>
+                  <c:v>0.90264964103698697</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1423,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
+              <c16:uniqueId val="{00000002-20AB-4B5B-A946-C87505734EAC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1761,8 +1768,398 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Comparison Algo/Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11103798607602375"/>
+          <c:y val="8.0750627609292594E-2"/>
+          <c:w val="0.85862742097520062"/>
+          <c:h val="0.75026560351005045"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'random - large'!$C$319</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'random - large'!$B$320:$B$327</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Branch &amp; bound bfs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Branch &amp; bound dfs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dynamic programming</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>dynamic top down</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dynamic FPTAS</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Greedy value</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Greedy weight</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>CMCM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'random - large'!$C$320:$C$327</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.130850982666015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9946575164794902E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7529549837112404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.060949611663801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.30384593009948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3284487724304099E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.52087259292602E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87786917686462396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9C1-4C73-843C-E8D4EF410E27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="434195808"/>
+        <c:axId val="434196640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="434195808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434196640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="434196640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="434195808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>CMCM</a:t>
+              <a:t>BRANCH AND BOUND BFS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1868,18 +2265,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$273:$D$275</c:f>
+              <c:f>'random - large'!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.0333671092987</c:v>
+                  <c:v>6.96224689483642E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0787679195404001</c:v>
+                  <c:v>0.119007968902587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87786917686462396</c:v>
+                  <c:v>0.130850982666015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,7 +2284,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20AB-4B5B-A946-C87505734EAC}"/>
+              <c16:uniqueId val="{00000000-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1941,18 +2338,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$273:$B$275</c:f>
+              <c:f>'random - large'!$B$34:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.89176058769225997</c:v>
+                  <c:v>4.1888952255249003E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85826134681701605</c:v>
+                  <c:v>5.3858041763305602E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.85487532615661599</c:v>
+                  <c:v>0.12971377372741699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1960,7 +2357,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20AB-4B5B-A946-C87505734EAC}"/>
+              <c16:uniqueId val="{00000001-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2014,18 +2411,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$273:$C$275</c:f>
+              <c:f>'random - large'!$C$34:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.3184738159179601</c:v>
+                  <c:v>0.115689754486083</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6400978565216</c:v>
+                  <c:v>0.67134165763854903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90264964103698697</c:v>
+                  <c:v>0.13264560699462799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2430,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20AB-4B5B-A946-C87505734EAC}"/>
+              <c16:uniqueId val="{00000002-99DE-4F5D-B13B-D535BCA2984D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2344,783 +2741,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Comparison Algo/Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'random - large'!$B$300:$B$307</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Branch &amp; bound bfs</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Branch &amp; bound dfs</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>dynamic programming</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>dynamic top down</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>dynamic FPTAS</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Greedy value</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Greedy weight</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CMCM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'random - large'!$C$300:$C$307</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.130850982666015</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9946575164794902E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.7529549837112404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.060949611663801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.30384593009948</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.3284487724304099E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.52087259292602E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87786917686462396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D9C1-4C73-843C-E8D4EF410E27}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="434195808"/>
-        <c:axId val="434196640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="434195808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="434196640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="434196640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="434195808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'random - large'!$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.7859999999999899E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>100</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'random - large'!$K$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.07477599999999E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>1000</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'random - large'!$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>9.31E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-5C53-483D-9999-0B8A3B41C1B7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="197454143"/>
-        <c:axId val="197453311"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="197454143"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>capacity</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.6213959697789645"/>
-              <c:y val="0.89777704870224551"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197453311"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="197453311"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Memory</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="fr-FR" baseline="0"/>
-                  <a:t> usage</a:t>
-                </a:r>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="197454143"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3156,7 +2776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>BRANCH AND BOUND BFS</a:t>
+              <a:t>BRANCH AND BOUND DFS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3262,18 +2882,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$34:$D$36</c:f>
+              <c:f>'random - large'!$D$64:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6.96224689483642E-2</c:v>
+                  <c:v>1.69532299041748E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.119007968902587</c:v>
+                  <c:v>1.8949270248413001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.130850982666015</c:v>
+                  <c:v>1.9946575164794902E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,7 +2901,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000000-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3335,18 +2955,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$34:$B$36</c:f>
+              <c:f>'random - large'!$B$64:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.1888952255249003E-2</c:v>
+                  <c:v>9.9682807922363195E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3858041763305602E-2</c:v>
+                  <c:v>9.9635124206542904E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12971377372741699</c:v>
+                  <c:v>9.9754333496093707E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3354,7 +2974,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000001-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3408,18 +3028,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$34:$C$36</c:f>
+              <c:f>'random - large'!$C$64:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.115689754486083</c:v>
+                  <c:v>1.9953250885009701E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67134165763854903</c:v>
+                  <c:v>3.0000209808349601E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13264560699462799</c:v>
+                  <c:v>2.9921531677245998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3427,7 +3047,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99DE-4F5D-B13B-D535BCA2984D}"/>
+              <c16:uniqueId val="{00000002-308B-40D0-873C-9F8AF2078671}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3773,7 +3393,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>BRANCH AND BOUND DFS</a:t>
+              <a:t>Dynamique programming</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3879,18 +3499,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$64:$D$66</c:f>
+              <c:f>'random - large'!$D$95:$D$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.69532299041748E-3</c:v>
+                  <c:v>5.5964398384094199E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8949270248413001E-3</c:v>
+                  <c:v>0.41536467075347899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9946575164794902E-3</c:v>
+                  <c:v>4.7529549837112404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3898,7 +3518,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000000-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3952,18 +3572,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$64:$B$66</c:f>
+              <c:f>'random - large'!$B$95:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9.9682807922363195E-4</c:v>
+                  <c:v>4.2891740798950098E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.9635124206542904E-4</c:v>
+                  <c:v>0.34008955955505299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.9754333496093707E-4</c:v>
+                  <c:v>4.26456427574157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3971,7 +3591,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000001-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4025,18 +3645,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$64:$C$66</c:f>
+              <c:f>'random - large'!$C$95:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.9953250885009701E-3</c:v>
+                  <c:v>0.115691423416137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0000209808349601E-3</c:v>
+                  <c:v>0.60070085525512695</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9921531677245998E-3</c:v>
+                  <c:v>5.67455577850341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4044,7 +3664,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-308B-40D0-873C-9F8AF2078671}"/>
+              <c16:uniqueId val="{00000002-0C6F-4BEA-85EA-F0D88BBAF718}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4390,7 +4010,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamique programming</a:t>
+              <a:t>Dynamique programming top down</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4496,18 +4116,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$95:$D$97</c:f>
+              <c:f>'random - large'!$D$124:$D$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.5964398384094199E-2</c:v>
+                  <c:v>0.72365944385528502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41536467075347899</c:v>
+                  <c:v>4.6584871530532803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7529549837112404</c:v>
+                  <c:v>51.060949611663801</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,7 +4135,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0C6F-4BEA-85EA-F0D88BBAF718}"/>
+              <c16:uniqueId val="{00000000-0475-4813-8E76-B7853049815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4569,18 +4189,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$95:$B$97</c:f>
+              <c:f>'random - large'!$B$124:$B$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.2891740798950098E-2</c:v>
+                  <c:v>0.47091841697692799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34008955955505299</c:v>
+                  <c:v>4.0871846675872803</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.26456427574157</c:v>
+                  <c:v>47.200309038162203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4588,7 +4208,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0C6F-4BEA-85EA-F0D88BBAF718}"/>
+              <c16:uniqueId val="{00000001-0475-4813-8E76-B7853049815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4642,18 +4262,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$95:$C$97</c:f>
+              <c:f>'random - large'!$C$124:$C$126</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.115691423416137</c:v>
+                  <c:v>0.89886069297790505</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60070085525512695</c:v>
+                  <c:v>5.1869688034057599</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.67455577850341</c:v>
+                  <c:v>56.9156332015991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,7 +4281,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0C6F-4BEA-85EA-F0D88BBAF718}"/>
+              <c16:uniqueId val="{00000002-0475-4813-8E76-B7853049815C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5007,7 +4627,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamique programming top down</a:t>
+              <a:t>Dynamic programming FPTAS</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5113,18 +4733,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$124:$D$126</c:f>
+              <c:f>'random - large'!$D$154:$D$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.72365944385528502</c:v>
+                  <c:v>0.19163413047790501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6584871530532803</c:v>
+                  <c:v>0.42176623344421299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.060949611663801</c:v>
+                  <c:v>4.30384593009948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5132,7 +4752,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000000-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5186,18 +4806,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$124:$B$126</c:f>
+              <c:f>'random - large'!$B$154:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47091841697692799</c:v>
+                  <c:v>0.153588771820068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0871846675872803</c:v>
+                  <c:v>0.40158462524414001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.200309038162203</c:v>
+                  <c:v>4.20344638824462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5205,7 +4825,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000001-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5259,18 +4879,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$124:$C$126</c:f>
+              <c:f>'random - large'!$C$154:$C$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.89886069297790505</c:v>
+                  <c:v>0.24833607673645</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.1869688034057599</c:v>
+                  <c:v>0.44265532493591297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.9156332015991</c:v>
+                  <c:v>4.44569587707519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5278,7 +4898,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0475-4813-8E76-B7853049815C}"/>
+              <c16:uniqueId val="{00000002-D0F3-47E8-B552-A0E94C53EE11}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5624,8 +5244,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Dynamic programming FPTAS</a:t>
+              <a:t>Genetic</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> no optima</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -5730,18 +5355,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$154:$D$156</c:f>
+              <c:f>'random - large'!$D$183:$D$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.19163413047790501</c:v>
+                  <c:v>2.6781415939331001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42176623344421299</c:v>
+                  <c:v>6.8376169204711901E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.30384593009948</c:v>
+                  <c:v>8.1846083402633596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5749,7 +5374,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5803,18 +5428,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$154:$B$156</c:f>
+              <c:f>'random - large'!$B$183:$B$185</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0.153588771820068</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>8.9743137359619106E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.40158462524414001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.20344638824462</c:v>
+                  <c:v>8.97574424743652E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>7.3522028923034597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,7 +5447,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5876,18 +5501,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$154:$C$156</c:f>
+              <c:f>'random - large'!$C$183:$C$185</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.24833607673645</c:v>
+                  <c:v>8.1758499145507799E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44265532493591297</c:v>
+                  <c:v>0.18749904632568301</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.44569587707519</c:v>
+                  <c:v>8.9627935886383003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5895,7 +5520,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D0F3-47E8-B552-A0E94C53EE11}"/>
+              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6241,13 +5866,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Genetic</a:t>
+              <a:t>Greedu value</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> no optima</a:t>
-            </a:r>
-            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -6352,18 +5972,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$183:$D$185</c:f>
+              <c:f>'random - large'!$D$212:$D$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.6781415939331001E-2</c:v>
+                  <c:v>3.7303018569946202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8376169204711901E-2</c:v>
+                  <c:v>4.0090131759643502E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1846083402633596</c:v>
+                  <c:v>4.3284487724304099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6371,7 +5991,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6425,18 +6045,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$183:$B$185</c:f>
+              <c:f>'random - large'!$B$212:$B$214</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>8.9743137359619106E-3</c:v>
+                <c:pt idx="0">
+                  <c:v>3.2889842987060498E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.97574424743652E-3</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>7.3522028923034597</c:v>
+                  <c:v>3.69009971618652E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5902738571166902E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6444,7 +6064,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6498,18 +6118,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$183:$C$185</c:f>
+              <c:f>'random - large'!$C$212:$C$214</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.1758499145507799E-2</c:v>
+                  <c:v>5.28616905212402E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18749904632568301</c:v>
+                  <c:v>5.0852060317993102E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9627935886383003</c:v>
+                  <c:v>5.2856922149658203E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6517,7 +6137,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3BA7-47D6-8713-1C392BBE4F3C}"/>
+              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6863,7 +6483,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Greedu value</a:t>
+              <a:t>Greedu weight</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6969,18 +6589,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$D$212:$D$214</c:f>
+              <c:f>'random - large'!$D$242:$D$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.7303018569946202E-2</c:v>
+                  <c:v>4.3284201622009202E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0090131759643502E-2</c:v>
+                  <c:v>4.0449357032775801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3284487724304099E-2</c:v>
+                  <c:v>3.52087259292602E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6988,7 +6608,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000000-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7042,18 +6662,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$B$212:$B$214</c:f>
+              <c:f>'random - large'!$B$242:$B$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.2889842987060498E-2</c:v>
+                  <c:v>3.4907102584838798E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.69009971618652E-2</c:v>
+                  <c:v>3.8896322250366197E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5902738571166902E-2</c:v>
+                  <c:v>3.2935142517089802E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7061,7 +6681,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000001-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7115,18 +6735,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'random - large'!$C$212:$C$214</c:f>
+              <c:f>'random - large'!$C$242:$C$244</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.28616905212402E-2</c:v>
+                  <c:v>6.98132514953613E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0852060317993102E-2</c:v>
+                  <c:v>4.3426275253295898E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2856922149658203E-2</c:v>
+                  <c:v>3.7928342819213798E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7134,7 +6754,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B999-4A89-B57C-FA63884204CD}"/>
+              <c16:uniqueId val="{00000002-FB35-4202-85CB-B9BDF8382E4A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7565,46 +7185,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8958,7 +8538,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8985,8 +8565,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9087,7 +8667,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9119,10 +8699,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -9162,23 +8742,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9283,8 +8862,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9416,20 +8995,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9443,17 +9021,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9473,8 +9040,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9501,8 +9068,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9603,7 +9170,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9635,513 +9202,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -10462,6 +9526,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -14133,45 +13208,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>81998</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37892</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53423</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114092</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Graphique 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65803A35-D64F-7715-D1AD-D444E60E4EF6}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{66F43AC5-47D2-5641-2918-8DDD7FE136F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>521804</xdr:colOff>
       <xdr:row>39</xdr:row>
@@ -14205,7 +13241,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14246,7 +13282,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14287,7 +13323,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14328,7 +13364,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14369,7 +13405,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14410,7 +13446,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14451,7 +13487,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14492,7 +13528,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14533,7 +13569,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14541,16 +13577,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>215347</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>144117</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1215473</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>172692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30368</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>16564</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695326</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>28676</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14569,7 +13605,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14735,8 +13771,8 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F9F261-BB79-4A7B-91F6-303221CE2591}" name="Tableau4" displayName="Tableau4" ref="B299:C307" totalsRowShown="0">
-  <autoFilter ref="B299:C307" xr:uid="{D9F9F261-BB79-4A7B-91F6-303221CE2591}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D9F9F261-BB79-4A7B-91F6-303221CE2591}" name="Tableau4" displayName="Tableau4" ref="B319:C327" totalsRowShown="0">
+  <autoFilter ref="B319:C327" xr:uid="{D9F9F261-BB79-4A7B-91F6-303221CE2591}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9424B921-3AE0-402C-BDFB-7A109F7DBF0F}" name="algo"/>
     <tableColumn id="2" xr3:uid="{52487FB9-D99A-4AB4-9940-AFED875ECDC6}" name="average" dataDxfId="0"/>
@@ -15150,10 +14186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K307"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:K327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L300" sqref="L300"/>
+    <sheetView tabSelected="1" topLeftCell="A312" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L331" sqref="A27:L331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15170,17 +14209,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -15286,55 +14325,55 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="I32" s="7" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="I32" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -15363,13 +14402,13 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="9">
+      <c r="B34" s="7">
         <v>4.1888952255249003E-2</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>0.115689754486083</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>6.96224689483642E-2</v>
       </c>
       <c r="E34" s="3">
@@ -15378,112 +14417,112 @@
       <c r="G34" s="1">
         <v>1000</v>
       </c>
-      <c r="I34" s="12">
+      <c r="I34" s="10">
         <v>5.0720000000000001E-3</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="10">
         <v>1.1831E-2</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="10">
         <v>6.6344000000000004E-3</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="11">
+      <c r="B35" s="9">
         <v>5.3858041763305602E-2</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>0.67134165763854903</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>0.119007968902587</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="10">
         <v>5.0720000000000001E-3</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="10">
         <v>5.296E-2</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="10">
         <v>1.6469499999999901E-2</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="9">
+      <c r="B36" s="7">
         <v>0.12971377372741699</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>0.13264560699462799</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>0.130850982666015</v>
       </c>
       <c r="E36" s="3">
         <v>1000</v>
       </c>
-      <c r="I36" s="12">
+      <c r="I36" s="10">
         <v>5.0359999999999997E-3</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="10">
         <v>9.8569999999999994E-3</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="10">
         <v>6.5503999999999996E-3</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="8"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="I62" s="7" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="I62" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
@@ -15512,13 +14551,13 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="9">
+      <c r="B64" s="7">
         <v>9.9682807922363195E-4</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="8">
         <v>1.9953250885009701E-3</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="8">
         <v>1.69532299041748E-3</v>
       </c>
       <c r="E64" s="3">
@@ -15527,112 +14566,112 @@
       <c r="G64" s="1">
         <v>1000</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="10">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="10">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="10">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="11">
+      <c r="B65" s="9">
         <v>9.9635124206542904E-4</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="8">
         <v>3.0000209808349601E-3</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="8">
         <v>1.8949270248413001E-3</v>
       </c>
       <c r="E65" s="3">
         <v>100</v>
       </c>
-      <c r="I65" s="12">
+      <c r="I65" s="10">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="10">
         <v>2.4239999999999999E-3</v>
       </c>
-      <c r="K65" s="12">
+      <c r="K65" s="10">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="9">
+      <c r="B66" s="7">
         <v>9.9754333496093707E-4</v>
       </c>
-      <c r="C66" s="10">
+      <c r="C66" s="8">
         <v>2.9921531677245998E-3</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="8">
         <v>1.9946575164794902E-3</v>
       </c>
       <c r="E66" s="3">
         <v>1000</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="10">
         <v>2.4250000000000001E-3</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="10">
         <v>2.4250000000000001E-3</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="10">
         <v>2.42399999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="I93" s="7" t="s">
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="I93" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
@@ -15661,13 +14700,13 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" s="9">
+      <c r="B95" s="7">
         <v>4.2891740798950098E-2</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="8">
         <v>0.115691423416137</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="8">
         <v>5.5964398384094199E-2</v>
       </c>
       <c r="E95" s="3">
@@ -15676,112 +14715,112 @@
       <c r="G95" s="1">
         <v>1000</v>
       </c>
-      <c r="I95" s="12">
+      <c r="I95" s="10">
         <v>4.424E-3</v>
       </c>
-      <c r="J95" s="12">
+      <c r="J95" s="10">
         <v>5.5599999999999998E-3</v>
       </c>
-      <c r="K95" s="12">
+      <c r="K95" s="10">
         <v>4.6647999999999898E-3</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="11">
+      <c r="B96" s="9">
         <v>0.34008955955505299</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="8">
         <v>0.60070085525512695</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="8">
         <v>0.41536467075347899</v>
       </c>
       <c r="E96" s="3">
         <v>100</v>
       </c>
-      <c r="I96" s="12">
+      <c r="I96" s="10">
         <v>5.0229999999999997E-3</v>
       </c>
-      <c r="J96" s="12">
+      <c r="J96" s="10">
         <v>7.2189999999999997E-3</v>
       </c>
-      <c r="K96" s="12">
+      <c r="K96" s="10">
         <v>5.6436999999999998E-3</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="9">
+      <c r="B97" s="7">
         <v>4.26456427574157</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="8">
         <v>5.67455577850341</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="8">
         <v>4.7529549837112404</v>
       </c>
       <c r="E97" s="3">
         <v>1000</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="10">
         <v>5.3010000000000002E-3</v>
       </c>
-      <c r="J97" s="12">
+      <c r="J97" s="10">
         <v>5.6179999999999997E-3</v>
       </c>
-      <c r="K97" s="12">
+      <c r="K97" s="10">
         <v>5.5087000000000001E-3</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="8"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="8"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="I122" s="7" t="s">
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="I122" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="14"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" s="2" t="s">
@@ -15810,13 +14849,13 @@
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" s="9">
+      <c r="B124" s="7">
         <v>0.47091841697692799</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="8">
         <v>0.89886069297790505</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="8">
         <v>0.72365944385528502</v>
       </c>
       <c r="E124" s="3">
@@ -15825,112 +14864,112 @@
       <c r="G124" s="1">
         <v>1000</v>
       </c>
-      <c r="I124" s="12">
+      <c r="I124" s="10">
         <v>1.499196</v>
       </c>
-      <c r="J124" s="12">
+      <c r="J124" s="10">
         <v>1.5242279999999999</v>
       </c>
-      <c r="K124" s="12">
+      <c r="K124" s="10">
         <v>1.5217011</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" s="11">
+      <c r="B125" s="9">
         <v>4.0871846675872803</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="8">
         <v>5.1869688034057599</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="8">
         <v>4.6584871530532803</v>
       </c>
       <c r="E125" s="3">
         <v>100</v>
       </c>
-      <c r="I125" s="12">
+      <c r="I125" s="10">
         <v>12.9967329999999</v>
       </c>
-      <c r="J125" s="12">
+      <c r="J125" s="10">
         <v>13.022209999999999</v>
       </c>
-      <c r="K125" s="12">
+      <c r="K125" s="10">
         <v>13.0195443</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" s="9">
+      <c r="B126" s="7">
         <v>47.200309038162203</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="8">
         <v>56.9156332015991</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="8">
         <v>51.060949611663801</v>
       </c>
       <c r="E126" s="3">
         <v>1000</v>
       </c>
-      <c r="I126" s="12">
+      <c r="I126" s="10">
         <v>116.913196</v>
       </c>
-      <c r="J126" s="12">
+      <c r="J126" s="10">
         <v>116.938617999999</v>
       </c>
-      <c r="K126" s="12">
+      <c r="K126" s="10">
         <v>116.9359863</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+      <c r="K148" s="13"/>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B149" s="8"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
-      <c r="F149" s="8"/>
-      <c r="G149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
+      <c r="H149" s="13"/>
+      <c r="I149" s="13"/>
+      <c r="J149" s="13"/>
+      <c r="K149" s="13"/>
     </row>
     <row r="150" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B150" s="8"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-      <c r="G150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
+      <c r="H150" s="13"/>
+      <c r="I150" s="13"/>
+      <c r="J150" s="13"/>
+      <c r="K150" s="13"/>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="I152" s="7" t="s">
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="I152" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
+      <c r="J152" s="14"/>
+      <c r="K152" s="14"/>
     </row>
     <row r="153" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B153" s="2" t="s">
@@ -15959,13 +14998,13 @@
       </c>
     </row>
     <row r="154" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B154" s="9">
+      <c r="B154" s="7">
         <v>0.153588771820068</v>
       </c>
-      <c r="C154" s="10">
+      <c r="C154" s="8">
         <v>0.24833607673645</v>
       </c>
-      <c r="D154" s="10">
+      <c r="D154" s="8">
         <v>0.19163413047790501</v>
       </c>
       <c r="E154" s="3">
@@ -15974,112 +15013,112 @@
       <c r="G154" s="1">
         <v>1000</v>
       </c>
-      <c r="I154" s="12">
+      <c r="I154" s="10">
         <v>7.228E-3</v>
       </c>
-      <c r="J154" s="12">
+      <c r="J154" s="10">
         <v>1.3084E-2</v>
       </c>
-      <c r="K154" s="12">
+      <c r="K154" s="10">
         <v>8.4734999999999897E-3</v>
       </c>
     </row>
     <row r="155" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B155" s="11">
+      <c r="B155" s="9">
         <v>0.40158462524414001</v>
       </c>
-      <c r="C155" s="10">
+      <c r="C155" s="8">
         <v>0.44265532493591297</v>
       </c>
-      <c r="D155" s="10">
+      <c r="D155" s="8">
         <v>0.42176623344421299</v>
       </c>
       <c r="E155" s="3">
         <v>100</v>
       </c>
-      <c r="I155" s="12">
+      <c r="I155" s="10">
         <v>7.7669999999999996E-3</v>
       </c>
-      <c r="J155" s="12">
+      <c r="J155" s="10">
         <v>1.16379999999999E-2</v>
       </c>
-      <c r="K155" s="12">
+      <c r="K155" s="10">
         <v>8.2438999999999898E-3</v>
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B156" s="9">
+      <c r="B156" s="7">
         <v>4.20344638824462</v>
       </c>
-      <c r="C156" s="10">
+      <c r="C156" s="8">
         <v>4.44569587707519</v>
       </c>
-      <c r="D156" s="10">
+      <c r="D156" s="8">
         <v>4.30384593009948</v>
       </c>
       <c r="E156" s="3">
         <v>1000</v>
       </c>
-      <c r="I156" s="12">
+      <c r="I156" s="10">
         <v>7.9930000000000001E-3</v>
       </c>
-      <c r="J156" s="12">
+      <c r="J156" s="10">
         <v>1.08519999999999E-2</v>
       </c>
-      <c r="K156" s="12">
+      <c r="K156" s="10">
         <v>8.3563999999999999E-3</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" s="8" t="s">
+      <c r="B177" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-      <c r="G177" s="8"/>
-      <c r="H177" s="8"/>
-      <c r="I177" s="8"/>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="13"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
+      <c r="H177" s="13"/>
+      <c r="I177" s="13"/>
+      <c r="J177" s="13"/>
+      <c r="K177" s="13"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
+      <c r="H178" s="13"/>
+      <c r="I178" s="13"/>
+      <c r="J178" s="13"/>
+      <c r="K178" s="13"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" s="8"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8"/>
-      <c r="K179" s="8"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="13"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
+      <c r="H179" s="13"/>
+      <c r="I179" s="13"/>
+      <c r="J179" s="13"/>
+      <c r="K179" s="13"/>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="7"/>
-      <c r="I181" s="7" t="s">
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="I181" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
+      <c r="J181" s="14"/>
+      <c r="K181" s="14"/>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" s="2" t="s">
@@ -16180,55 +15219,55 @@
       </c>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8"/>
-      <c r="K206" s="8"/>
+      <c r="C206" s="13"/>
+      <c r="D206" s="13"/>
+      <c r="E206" s="13"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
+      <c r="H206" s="13"/>
+      <c r="I206" s="13"/>
+      <c r="J206" s="13"/>
+      <c r="K206" s="13"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B207" s="8"/>
-      <c r="C207" s="8"/>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8"/>
-      <c r="K207" s="8"/>
+      <c r="B207" s="13"/>
+      <c r="C207" s="13"/>
+      <c r="D207" s="13"/>
+      <c r="E207" s="13"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="13"/>
+      <c r="K207" s="13"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B208" s="8"/>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8"/>
-      <c r="J208" s="8"/>
-      <c r="K208" s="8"/>
+      <c r="B208" s="13"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+      <c r="K208" s="13"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="7"/>
-      <c r="I210" s="7" t="s">
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="14"/>
+      <c r="I210" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J210" s="7"/>
-      <c r="K210" s="7"/>
+      <c r="J210" s="14"/>
+      <c r="K210" s="14"/>
     </row>
     <row r="211" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B211" s="2" t="s">
@@ -16257,13 +15296,13 @@
       </c>
     </row>
     <row r="212" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B212" s="9">
+      <c r="B212" s="7">
         <v>3.2889842987060498E-2</v>
       </c>
-      <c r="C212" s="10">
+      <c r="C212" s="8">
         <v>5.28616905212402E-2</v>
       </c>
-      <c r="D212" s="10">
+      <c r="D212" s="8">
         <v>3.7303018569946202E-2</v>
       </c>
       <c r="E212" s="3">
@@ -16272,112 +15311,112 @@
       <c r="G212" s="1">
         <v>1000</v>
       </c>
-      <c r="I212" s="12">
+      <c r="I212" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J212" s="12">
+      <c r="J212" s="10">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K212" s="12">
+      <c r="K212" s="10">
         <v>3.4334000000000001E-3</v>
       </c>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B213" s="11">
+      <c r="B213" s="9">
         <v>3.69009971618652E-2</v>
       </c>
-      <c r="C213" s="10">
+      <c r="C213" s="8">
         <v>5.0852060317993102E-2</v>
       </c>
-      <c r="D213" s="10">
+      <c r="D213" s="8">
         <v>4.0090131759643502E-2</v>
       </c>
       <c r="E213" s="3">
         <v>100</v>
       </c>
-      <c r="I213" s="12">
+      <c r="I213" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J213" s="12">
+      <c r="J213" s="10">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K213" s="12">
+      <c r="K213" s="10">
         <v>3.1181999999999998E-3</v>
       </c>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B214" s="9">
+      <c r="B214" s="7">
         <v>3.5902738571166902E-2</v>
       </c>
-      <c r="C214" s="10">
+      <c r="C214" s="8">
         <v>5.2856922149658203E-2</v>
       </c>
-      <c r="D214" s="10">
+      <c r="D214" s="8">
         <v>4.3284487724304099E-2</v>
       </c>
       <c r="E214" s="3">
         <v>1000</v>
       </c>
-      <c r="I214" s="12">
+      <c r="I214" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J214" s="12">
+      <c r="J214" s="10">
         <v>5.90399999999999E-3</v>
       </c>
-      <c r="K214" s="12">
+      <c r="K214" s="10">
         <v>3.5196999999999902E-3</v>
       </c>
     </row>
     <row r="236" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+      <c r="K236" s="13"/>
     </row>
     <row r="237" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+      <c r="K237" s="13"/>
     </row>
     <row r="238" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B238" s="8"/>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8"/>
-      <c r="K238" s="8"/>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+      <c r="K238" s="13"/>
     </row>
     <row r="240" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B240" s="7" t="s">
+      <c r="B240" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C240" s="7"/>
-      <c r="D240" s="7"/>
-      <c r="E240" s="7"/>
-      <c r="I240" s="7" t="s">
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="14"/>
+      <c r="I240" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J240" s="7"/>
-      <c r="K240" s="7"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="14"/>
     </row>
     <row r="241" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B241" s="2" t="s">
@@ -16406,13 +15445,13 @@
       </c>
     </row>
     <row r="242" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B242" s="9">
+      <c r="B242" s="7">
         <v>3.4907102584838798E-2</v>
       </c>
-      <c r="C242" s="10">
+      <c r="C242" s="8">
         <v>6.98132514953613E-2</v>
       </c>
-      <c r="D242" s="10">
+      <c r="D242" s="8">
         <v>4.3284201622009202E-2</v>
       </c>
       <c r="E242" s="3">
@@ -16421,112 +15460,112 @@
       <c r="G242" s="1">
         <v>1000</v>
       </c>
-      <c r="I242" s="12">
+      <c r="I242" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J242" s="12">
+      <c r="J242" s="10">
         <v>7.7329999999999899E-3</v>
       </c>
-      <c r="K242" s="12">
+      <c r="K242" s="10">
         <v>4.2208999999999997E-3</v>
       </c>
     </row>
     <row r="243" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B243" s="11">
+      <c r="B243" s="9">
         <v>3.8896322250366197E-2</v>
       </c>
-      <c r="C243" s="10">
+      <c r="C243" s="8">
         <v>4.3426275253295898E-2</v>
       </c>
-      <c r="D243" s="10">
+      <c r="D243" s="8">
         <v>4.0449357032775801E-2</v>
       </c>
       <c r="E243" s="3">
         <v>100</v>
       </c>
-      <c r="I243" s="12">
+      <c r="I243" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J243" s="12">
+      <c r="J243" s="10">
         <v>7.6649999999999999E-3</v>
       </c>
-      <c r="K243" s="12">
+      <c r="K243" s="10">
         <v>3.8501E-3</v>
       </c>
     </row>
     <row r="244" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B244" s="9">
+      <c r="B244" s="7">
         <v>3.2935142517089802E-2</v>
       </c>
-      <c r="C244" s="10">
+      <c r="C244" s="8">
         <v>3.7928342819213798E-2</v>
       </c>
-      <c r="D244" s="10">
+      <c r="D244" s="8">
         <v>3.52087259292602E-2</v>
       </c>
       <c r="E244" s="3">
         <v>1000</v>
       </c>
-      <c r="I244" s="12">
+      <c r="I244" s="10">
         <v>2.6719999999999999E-3</v>
       </c>
-      <c r="J244" s="12">
+      <c r="J244" s="10">
         <v>8.4569999999999992E-3</v>
       </c>
-      <c r="K244" s="12">
+      <c r="K244" s="10">
         <v>3.5406999999999999E-3</v>
       </c>
     </row>
     <row r="267" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8"/>
-      <c r="I267" s="8"/>
-      <c r="J267" s="8"/>
-      <c r="K267" s="8"/>
+      <c r="C267" s="13"/>
+      <c r="D267" s="13"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+      <c r="K267" s="13"/>
     </row>
     <row r="268" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B268" s="8"/>
-      <c r="C268" s="8"/>
-      <c r="D268" s="8"/>
-      <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-      <c r="G268" s="8"/>
-      <c r="H268" s="8"/>
-      <c r="I268" s="8"/>
-      <c r="J268" s="8"/>
-      <c r="K268" s="8"/>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13"/>
+      <c r="D268" s="13"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+      <c r="K268" s="13"/>
     </row>
     <row r="269" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B269" s="8"/>
-      <c r="C269" s="8"/>
-      <c r="D269" s="8"/>
-      <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-      <c r="G269" s="8"/>
-      <c r="H269" s="8"/>
-      <c r="I269" s="8"/>
-      <c r="J269" s="8"/>
-      <c r="K269" s="8"/>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13"/>
+      <c r="D269" s="13"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
+      <c r="H269" s="13"/>
+      <c r="I269" s="13"/>
+      <c r="J269" s="13"/>
+      <c r="K269" s="13"/>
     </row>
     <row r="271" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C271" s="7"/>
-      <c r="D271" s="7"/>
-      <c r="E271" s="7"/>
-      <c r="I271" s="7" t="s">
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="14"/>
+      <c r="I271" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J271" s="7"/>
-      <c r="K271" s="7"/>
+      <c r="J271" s="14"/>
+      <c r="K271" s="14"/>
     </row>
     <row r="272" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B272" s="2" t="s">
@@ -16555,13 +15594,13 @@
       </c>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B273" s="9">
+      <c r="B273" s="7">
         <v>0.89176058769225997</v>
       </c>
-      <c r="C273" s="10">
+      <c r="C273" s="8">
         <v>1.3184738159179601</v>
       </c>
-      <c r="D273" s="10">
+      <c r="D273" s="8">
         <v>1.0333671092987</v>
       </c>
       <c r="E273" s="3">
@@ -16570,177 +15609,224 @@
       <c r="G273" s="1">
         <v>1000</v>
       </c>
-      <c r="I273" s="12">
+      <c r="I273" s="10">
         <v>5.3899999999999998E-4</v>
       </c>
-      <c r="J273" s="12">
+      <c r="J273" s="10">
         <v>7.6599999999999997E-4</v>
       </c>
-      <c r="K273" s="12">
+      <c r="K273" s="10">
         <v>6.399E-4</v>
       </c>
     </row>
     <row r="274" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B274" s="11">
+      <c r="B274" s="9">
         <v>0.85826134681701605</v>
       </c>
-      <c r="C274" s="10">
+      <c r="C274" s="8">
         <v>1.6400978565216</v>
       </c>
-      <c r="D274" s="10">
+      <c r="D274" s="8">
         <v>1.0787679195404001</v>
       </c>
       <c r="E274" s="3">
         <v>100</v>
       </c>
-      <c r="I274" s="12">
+      <c r="I274" s="10">
         <v>5.9400000000000002E-4</v>
       </c>
-      <c r="J274" s="12">
+      <c r="J274" s="10">
         <v>1.204E-3</v>
       </c>
-      <c r="K274" s="12">
+      <c r="K274" s="10">
         <v>6.9740000000000004E-4</v>
       </c>
     </row>
     <row r="275" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B275" s="9">
+      <c r="B275" s="7">
         <v>0.85487532615661599</v>
       </c>
-      <c r="C275" s="10">
+      <c r="C275" s="8">
         <v>0.90264964103698697</v>
       </c>
-      <c r="D275" s="10">
+      <c r="D275" s="8">
         <v>0.87786917686462396</v>
       </c>
       <c r="E275" s="3">
         <v>1000</v>
       </c>
-      <c r="I275" s="12">
+      <c r="I275" s="10">
         <v>6.2199999999999896E-4</v>
       </c>
-      <c r="J275" s="12">
+      <c r="J275" s="10">
         <v>7.3999999999999999E-4</v>
       </c>
-      <c r="K275" s="12">
+      <c r="K275" s="10">
         <v>7.0599999999999895E-4</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B299" t="s">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B301" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C301" s="13"/>
+      <c r="D301" s="13"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
+      <c r="H301" s="13"/>
+      <c r="I301" s="13"/>
+      <c r="J301" s="13"/>
+      <c r="K301" s="13"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B302" s="13"/>
+      <c r="C302" s="13"/>
+      <c r="D302" s="13"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
+      <c r="H302" s="13"/>
+      <c r="I302" s="13"/>
+      <c r="J302" s="13"/>
+      <c r="K302" s="13"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B303" s="13"/>
+      <c r="C303" s="13"/>
+      <c r="D303" s="13"/>
+      <c r="E303" s="13"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
+      <c r="H303" s="13"/>
+      <c r="I303" s="13"/>
+      <c r="J303" s="13"/>
+      <c r="K303" s="13"/>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B316" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C316" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
         <v>17</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B300" t="s">
+    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
         <v>18</v>
       </c>
-      <c r="C300" s="13">
+      <c r="C320" s="11">
         <f>D36</f>
         <v>0.130850982666015</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B301" t="s">
+    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
         <v>19</v>
       </c>
-      <c r="C301" s="13">
+      <c r="C321" s="11">
         <f>D66</f>
         <v>1.9946575164794902E-3</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B302" t="s">
+    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
         <v>20</v>
       </c>
-      <c r="C302" s="13">
+      <c r="C322" s="11">
         <f>D97</f>
         <v>4.7529549837112404</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B303" t="s">
+    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
         <v>21</v>
       </c>
-      <c r="C303" s="10">
+      <c r="C323" s="8">
         <f>D126</f>
         <v>51.060949611663801</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B304" t="s">
+    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
         <v>22</v>
       </c>
-      <c r="C304" s="10">
+      <c r="C324" s="8">
         <f>D156</f>
         <v>4.30384593009948</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" t="s">
+    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
         <v>14</v>
       </c>
-      <c r="C305" s="10">
+      <c r="C325" s="8">
         <f>D214</f>
         <v>4.3284487724304099E-2</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B306" t="s">
+    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
         <v>15</v>
       </c>
-      <c r="C306" s="10">
+      <c r="C326" s="8">
         <f>D244</f>
         <v>3.52087259292602E-2</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" t="s">
+    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
         <v>23</v>
       </c>
-      <c r="C307" s="10">
+      <c r="C327" s="8">
         <f>D275</f>
         <v>0.87786917686462396</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="B267:K269"/>
+    <mergeCell ref="B271:E271"/>
+    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B206:K208"/>
+    <mergeCell ref="B210:E210"/>
+    <mergeCell ref="I210:K210"/>
     <mergeCell ref="B236:K238"/>
     <mergeCell ref="B240:E240"/>
     <mergeCell ref="I240:K240"/>
-    <mergeCell ref="B267:K269"/>
-    <mergeCell ref="B271:E271"/>
-    <mergeCell ref="I271:K271"/>
+    <mergeCell ref="B152:E152"/>
+    <mergeCell ref="I152:K152"/>
     <mergeCell ref="B177:K179"/>
     <mergeCell ref="B181:E181"/>
     <mergeCell ref="I181:K181"/>
-    <mergeCell ref="B206:K208"/>
-    <mergeCell ref="B210:E210"/>
-    <mergeCell ref="I210:K210"/>
-    <mergeCell ref="B118:K120"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="I122:K122"/>
-    <mergeCell ref="B148:K150"/>
-    <mergeCell ref="B152:E152"/>
-    <mergeCell ref="I152:K152"/>
+    <mergeCell ref="B301:K303"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B28:K30"/>
     <mergeCell ref="B58:K60"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="I62:K62"/>
     <mergeCell ref="B89:K91"/>
     <mergeCell ref="B93:E93"/>
     <mergeCell ref="I93:K93"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B28:K30"/>
+    <mergeCell ref="B118:K120"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="I122:K122"/>
+    <mergeCell ref="B148:K150"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <tableParts count="21">
     <tablePart r:id="rId3"/>
